--- a/docs/StructureDefinition-ImmunizationImmunization.xlsx
+++ b/docs/StructureDefinition-ImmunizationImmunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImmunizationImmunization.xlsx
+++ b/docs/StructureDefinition-ImmunizationImmunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImmunizationImmunization.xlsx
+++ b/docs/StructureDefinition-ImmunizationImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImmunizationImmunization.xlsx
+++ b/docs/StructureDefinition-ImmunizationImmunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImmunizationImmunization.xlsx
+++ b/docs/StructureDefinition-ImmunizationImmunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -534,14 +534,24 @@
   </si>
   <si>
     <t>Immun.Immunization.ImmunizationNameIEN
-Dim.ImmunizationName.ImmunizationName,Dim.PharmacyOrderableItem.ImmunizationName</t>
-  </si>
-  <si>
-    <t>Vaccination.MaxDoseQuantity,Vaccination.OrderItem,Vaccination.Extension[VaccinationExtension].CDCName,Vaccination.Extension[VaccinationExtension].Source,Vaccination.AdministrationSite.Description,Vaccination.Manufacturer[VA.Manufacturer].Description
-Vaccination.OrderItem[Order].Description,Vaccination.Route.Description,Vaccination.OrderItem[Order].Description,Vaccination.ObservationCodedValue[ObservationValueCode].Description</t>
-  </si>
-  <si>
-    <t>immunization.cvx (&gt;9999999.14-.03),immunization.name (&gt;9999999.14-.01)</t>
+Dim.ImmunizationName.ImmunizationName
+Dim.PharmacyOrderableItem.ImmunizationName</t>
+  </si>
+  <si>
+    <t>Vaccination.MaxDoseQuantity
+Vaccination.OrderItem
+Vaccination.Extension[VaccinationExtension].CDCName
+Vaccination.Extension[VaccinationExtension].Source
+Vaccination.AdministrationSite.Description
+Vaccination.Manufacturer[VA.Manufacturer].Description
+Vaccination.OrderItem[Order].Description
+Vaccination.Route.Description
+Vaccination.OrderItem[Order].Description
+Vaccination.ObservationCodedValue[ObservationValueCode].Description</t>
+  </si>
+  <si>
+    <t>immunization.cvx (&gt;9999999.14-.03)
+immunization.name (&gt;9999999.14-.01)</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -804,8 +814,15 @@
 Dim.ImmunizationName.CVXCode</t>
   </si>
   <si>
-    <t>Vaccination.MaxDoseQuantity,Vaccination.OrderItem,Vaccination.Extension[VaccinationExtension].CDCName,Vaccination.Extension[VaccinationExtension].Source,Vaccination.AdministrationSite.Description,Vaccination.Manufacturer[VA.Manufacturer].Description
-Vaccination.OrderItem[Order].Code,Vaccination.Route.Code,Vaccination.OrderItem[Order].Code</t>
+    <t>Vaccination.MaxDoseQuantity
+Vaccination.OrderItem
+Vaccination.Extension[VaccinationExtension].CDCName
+Vaccination.Extension[VaccinationExtension].Source
+Vaccination.AdministrationSite.Description
+Vaccination.Manufacturer[VA.Manufacturer].Description
+Vaccination.OrderItem[Order].Code
+Vaccination.Route.Code
+Vaccination.OrderItem[Order].Code</t>
   </si>
   <si>
     <t>C*E.1</t>
@@ -962,7 +979,8 @@
     <t>Immun.Immunization.PatientIEN</t>
   </si>
   <si>
-    <t>Vaccination.AdministrationSite.Code,Vaccination.Manufacturer[VA.Manufacturer].Code</t>
+    <t>Vaccination.AdministrationSite.Code
+Vaccination.Manufacturer[VA.Manufacturer].Code</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -993,13 +1011,20 @@
     <t>1767: reference based on V IMMUNIZATION - VISIT (9000010.11-.03)</t>
   </si>
   <si>
-    <t>Immun.Immunization.OutsideLocation,Immun.Immunization.VisitDateTime,Immun.Immunization.VisitIEN</t>
-  </si>
-  <si>
-    <t>Vaccination.EncounterNumber,Vaccination.EnteredAt,Vaccination.Administration.AdministeredAtLocation</t>
-  </si>
-  <si>
-    <t>immunization.administered,immunization.encounter,immunization.facility (&gt;9000010-.06),immunization.location (&gt;9000010-.22)</t>
+    <t>Immun.Immunization.OutsideLocation
+Immun.Immunization.VisitDateTime
+Immun.Immunization.VisitIEN</t>
+  </si>
+  <si>
+    <t>Vaccination.EncounterNumber
+Vaccination.EnteredAt
+Vaccination.Administration.AdministeredAtLocation</t>
+  </si>
+  <si>
+    <t>immunization.administered
+immunization.encounter
+immunization.facility (&gt;9000010-.06)
+immunization.location (&gt;9000010-.22)</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1065,7 +1090,8 @@
     <t>Immun.Immunization.EventDateTime</t>
   </si>
   <si>
-    <t>Vaccination.FromTime,Vaccination.ToTime</t>
+    <t>Vaccination.FromTime
+Vaccination.ToTime</t>
   </si>
   <si>
     <t>Immunization.recorded</t>
@@ -1110,7 +1136,8 @@
     <t>Vaccination.Extension[VaccinationExtension].Source</t>
   </si>
   <si>
-    <t>immunization.source (&gt;920.1-.01),immunization.source (&gt;920.1-.02)</t>
+    <t>immunization.source (&gt;920.1-.01)
+immunization.source (&gt;920.1-.02)</t>
   </si>
   <si>
     <t>RXA-9</t>
@@ -1162,16 +1189,27 @@
     <t>1801: reference based on V IMMUNIZATION - VISIT &gt; VISIT - HOSPITAL LOCATION (9000010.11-.03 &gt; 9000010-.22)</t>
   </si>
   <si>
-    <t>Immun.Immunization.OutsideLocation,Immun.Immunization.VisitDateTime,Immun.Immunization.VisitIEN
-Outpat.Visit.LocationIEN,Outpat.Workload.LocationIEN</t>
-  </si>
-  <si>
-    <t>Vaccination.EncounterNumber,Vaccination.EnteredAt,Vaccination.Administration.AdministeredAtLocation
-Encounter.ExternalId,Encounter.HealthCareFacility</t>
-  </si>
-  <si>
-    <t>immunization.administered,immunization.encounter,immunization.facility (&gt;9000010-.06),immunization.location (&gt;9000010-.22)
-visit.creditStopCode (&gt;44-2503),visit.location (&gt;44-.01),visit.visitString</t>
+    <t>Immun.Immunization.OutsideLocation
+Immun.Immunization.VisitDateTime
+Immun.Immunization.VisitIEN
+Outpat.Visit.LocationIEN
+Outpat.Workload.LocationIEN</t>
+  </si>
+  <si>
+    <t>Vaccination.EncounterNumber
+Vaccination.EnteredAt
+Vaccination.Administration.AdministeredAtLocation
+Encounter.ExternalId
+Encounter.HealthCareFacility</t>
+  </si>
+  <si>
+    <t>immunization.administered
+immunization.encounter
+immunization.facility (&gt;9000010-.06)
+immunization.location (&gt;9000010-.22)
+visit.creditStopCode (&gt;44-2503)
+visit.location (&gt;44-.01)
+visit.visitString</t>
   </si>
   <si>
     <t>Event.location</t>
@@ -1202,7 +1240,8 @@
     <t>339: source value based on V IMMUNIZATION - LOT &gt; IMMUNIZATION LOT - MANUFACTURER (9000010.11-.05 &gt; 9999999.41-.02)</t>
   </si>
   <si>
-    <t>Dim.ImmunizationLot.ImmunizationManufacturerIEN,Dim.ImmunizationLot.ImmunizationManufacturerSID</t>
+    <t>Dim.ImmunizationLot.ImmunizationManufacturerIEN
+Dim.ImmunizationLot.ImmunizationManufacturerSID</t>
   </si>
   <si>
     <t>RXA-17</t>
@@ -2399,9 +2438,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="160.10546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="84.1015625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="208.09375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.37890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="46.109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="58.30859375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="126.50390625" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="203.0859375" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-ImmunizationImmunization.xlsx
+++ b/docs/StructureDefinition-ImmunizationImmunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImmunizationImmunization.xlsx
+++ b/docs/StructureDefinition-ImmunizationImmunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
